--- a/git.xlsx
+++ b/git.xlsx
@@ -19,12 +19,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>codigo</t>
   </si>
   <si>
     <t>descripcion</t>
+  </si>
+  <si>
+    <t>git init</t>
+  </si>
+  <si>
+    <t>crea un repositorio en la carpeta donde estes</t>
+  </si>
+  <si>
+    <t>git add</t>
+  </si>
+  <si>
+    <t>mueve  los cambios del area de trabajo al area de stagin</t>
+  </si>
+  <si>
+    <t>git add index.js</t>
+  </si>
+  <si>
+    <t>mueve el archivo en espesifico</t>
+  </si>
+  <si>
+    <t>git add *.js</t>
+  </si>
+  <si>
+    <t>mueve todos los archivos tipo js</t>
+  </si>
+  <si>
+    <t>git add src/component-*</t>
+  </si>
+  <si>
+    <t>mueve todos los archivos que empiezen con este patron</t>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <t>mueve todos los cambios del directorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git add -A </t>
+  </si>
+  <si>
+    <t>mueve todos los archivos con cambios del proyecto</t>
+  </si>
+  <si>
+    <t>git add -</t>
+  </si>
+  <si>
+    <t>agrega todos los archivos modificados o eliminados, no creados</t>
+  </si>
+  <si>
+    <t>git reset</t>
+  </si>
+  <si>
+    <t>accion contraria, regresa todos los archivos del area de stagin al area de trabajo</t>
+  </si>
+  <si>
+    <t>git commit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mueve los archivos del area de stagin al area del repositorio</t>
+  </si>
+  <si>
+    <t>git commit -m "nuevo commit"</t>
+  </si>
+  <si>
+    <t>para escribir el nombre del commit directamente en la consola de git</t>
   </si>
 </sst>
 </file>
@@ -342,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -362,6 +428,94 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
